--- a/biology/Biochimie/Fawzia_Fahim/Fawzia_Fahim.xlsx
+++ b/biology/Biochimie/Fawzia_Fahim/Fawzia_Fahim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fawzia Abbas Fahim (née le 9 décembre 1931 à Médinet el-Fayoum en Égypte) est une biochimiste et biologiste de l'environnement égyptienne, connue pour son travail sur les effets du venin de serpent et de l'iodoacetate (en) dans la lutte antitumorale. Elle est actuellement professeure de biochimie à l'Université Ain Shams, en Égypte. Fawzia  Fahim a également apporté d'importantes contributions à la santé infantile et au travail, et les questions de pollution en Égypte.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fawzia Fahim a obtenu son B. Sc. de l'Université du Caire, en Egypte, en 1954, et sa maîtrise en Chimie de l'Université du Caire en 1962. En 1965, elle a obtenu son Ph. d. de l'Université de Birmingham, en Angleterre. Elle est l'auteure ou co-auteure de plus de 80 articles scientifiques.
 Fahim a travaillé comme démonstratrice de la Faculté de Génie, au Département de chimie de l'Université du Caire, de 1957-1962. Elle a reçu une bourse gouvernementale de la part du Royaume-Uni, d'octobre 1962 à juin 1965, où elle fréquente l'Université de Birmingham. En 1966, elle est maître de conférences au département de biochimie de l'Université Ain Shams. En 1975, Fahim est devenue professeure agrégée et en 1980, elle est devenue professeure,  poste qu'elle occupe toujours.
@@ -544,7 +558,9 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1959, le Dr Fahim épouse Salah El-Din Mohamed El-Mahdi, professeur de Design et de Théorie des Machines à la Faculté de Génie, Université Ain-Shams. Il est mort en 1998. Ils eurent 3 enfants: Salwa (pédiatre), Mohamed (médecin de médecine interne) et Khalid, Ingénieur civil. 
 </t>
@@ -575,7 +591,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fawzia A Fahim, AMR Y Esmat, Essam A Mady et Emad K Ibrahim, « Antitumor Activities of Iodoacetate and Dimethylsulphoxide Against Solid Ehrlich Carcinoma Growth in Mice », Biological Research, vol. 36, no 2,‎ 2003, p. 253–62 (PMID 14513720, DOI 10.4067/S0716-97602003000200015)
 FA Fahim, AY Esmat, EA Mady, SM Ahmed et MA Zaki, « Biological activities of the crude skin toxin of the Suez Gulf oriental catfish (Plotosus lineatus) and its antitumor effect in vivo (mice) », Journal of natural toxins, vol. 11, no 4,‎ 2002, p. 283–95 (PMID 12503871)
